--- a/proj6/dataTable2.xlsx
+++ b/proj6/dataTable2.xlsx
@@ -1036,11 +1036,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="441022272"/>
-        <c:axId val="441023448"/>
+        <c:axId val="224407688"/>
+        <c:axId val="224416264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="441022272"/>
+        <c:axId val="224407688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,7 +1083,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441023448"/>
+        <c:crossAx val="224416264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1091,7 +1091,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="441023448"/>
+        <c:axId val="224416264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,7 +1142,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="441022272"/>
+        <c:crossAx val="224407688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1258,7 +1258,17 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Query 3 Convergence Test</a:t>
+              <a:t>Query 3 (</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>t,f,f,t,f,?,-,f</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>) Convergence Test</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1585,11 +1595,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="485277256"/>
-        <c:axId val="485276472"/>
+        <c:axId val="224697336"/>
+        <c:axId val="224991376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="485277256"/>
+        <c:axId val="224697336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,7 +1642,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485276472"/>
+        <c:crossAx val="224991376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1640,7 +1650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="485276472"/>
+        <c:axId val="224991376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1691,7 +1701,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="485277256"/>
+        <c:crossAx val="224697336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4375,7 +4385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="R37" sqref="R37"/>
     </sheetView>
   </sheetViews>
